--- a/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\참고 자료\01. 프로젝트 설계\07. 부품 견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DD4037-650B-4BE8-A18D-85271574EE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D132256A-EF96-417A-853A-79CA749D3F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>https://www.coupang.com/vp/products/1141827268?itemId=2113059018&amp;vendorItemId=70111718136&amp;q=%EA%B3%B5%EC%9C%A0%EA%B8%B06%ED%8F%AC%ED%8A%B8&amp;itemsCount=36&amp;searchId=bcd0e25321a441b4a2618380eecc07e2&amp;rank=1&amp;isAddedCart</t>
   </si>
@@ -244,6 +244,14 @@
   </si>
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1328148</t>
+  </si>
+  <si>
+    <t>초음파 거리센서 모듈 HC-SR04</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1076851</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -494,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,15 +566,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -576,31 +575,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -614,6 +595,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -800,7 +811,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -809,7 +820,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="8" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1091,35 +1102,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="24" customWidth="1"/>
+    <col min="1" max="1" width="5" style="21" customWidth="1"/>
     <col min="2" max="2" width="30.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="24" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="24" customWidth="1"/>
-    <col min="5" max="7" width="11.25" style="25" customWidth="1"/>
-    <col min="8" max="8" width="45.375" style="36" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="24"/>
+    <col min="3" max="3" width="28.75" style="21" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="21" customWidth="1"/>
+    <col min="5" max="7" width="11.25" style="22" customWidth="1"/>
+    <col min="8" max="8" width="45.375" style="27" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H1" s="26"/>
+      <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
@@ -1128,75 +1139,75 @@
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31">
+      <c r="F4" s="34"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="26">
         <v>45244</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="28" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="32" t="s">
+      <c r="F5" s="34"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="25" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="28" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="32" t="s">
+      <c r="F6" s="34"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="33" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="35"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
@@ -1222,7 +1233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -1247,7 +1258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="81" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2</v>
       </c>
@@ -1270,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>3</v>
       </c>
@@ -1293,7 +1304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>4</v>
       </c>
@@ -1316,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>5</v>
       </c>
@@ -1339,7 +1350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>6</v>
       </c>
@@ -1362,7 +1373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>7</v>
       </c>
@@ -1385,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>8</v>
       </c>
@@ -1408,7 +1419,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>9</v>
       </c>
@@ -1454,7 +1465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>11</v>
       </c>
@@ -1477,7 +1488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>12</v>
       </c>
@@ -1500,7 +1511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>13</v>
       </c>
@@ -1511,7 +1522,7 @@
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="29">
         <v>850</v>
       </c>
       <c r="F22" s="10"/>
@@ -1523,7 +1534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>14</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>15</v>
       </c>
@@ -1569,7 +1580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>16</v>
       </c>
@@ -1659,7 +1670,7 @@
         <f t="shared" si="0"/>
         <v>3388</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="30" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1684,11 +1695,11 @@
         <f t="shared" si="0"/>
         <v>5808</v>
       </c>
-      <c r="H29" s="39" t="s">
+      <c r="H29" s="30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>21</v>
       </c>
@@ -1711,23 +1722,28 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>22</v>
       </c>
-      <c r="B31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="D31" s="1">
+        <v>6</v>
+      </c>
+      <c r="E31" s="9">
+        <v>1210</v>
+      </c>
+      <c r="F31" s="10"/>
       <c r="G31" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="6"/>
+        <v>7986</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
@@ -1788,24 +1804,18 @@
       <c r="B35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
       <c r="F35" s="14">
         <f>SUM(F10:F34,G10:G34)</f>
-        <v>381649</v>
+        <v>389635</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -1813,6 +1823,12 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1825,6 +1841,7 @@
     <hyperlink ref="H11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="H28" r:id="rId8" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
     <hyperlink ref="H29" r:id="rId9" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
+    <hyperlink ref="H31" r:id="rId10" xr:uid="{B5ECA5A5-1866-4F32-A9EE-B7F85448DDF5}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait"/>

--- a/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\참고 자료\01. 프로젝트 설계\07. 부품 견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D132256A-EF96-417A-853A-79CA749D3F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC2E40D-8852-4D6A-9873-1D6B971A7933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
-    <t>https://www.coupang.com/vp/products/1141827268?itemId=2113059018&amp;vendorItemId=70111718136&amp;q=%EA%B3%B5%EC%9C%A0%EA%B8%B06%ED%8F%AC%ED%8A%B8&amp;itemsCount=36&amp;searchId=bcd0e25321a441b4a2618380eecc07e2&amp;rank=1&amp;isAddedCart</t>
-  </si>
-  <si>
     <t>https://www.devicemart.co.kr/goods/view?no=10916343</t>
   </si>
   <si>
@@ -68,13 +65,7 @@
     <t>https://www.devicemart.co.kr/goods/view?no=1362013</t>
   </si>
   <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=10919287</t>
-  </si>
-  <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1321196</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1077951</t>
   </si>
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1384708</t>
@@ -111,9 +102,6 @@
     <t>컨베이어 벨트</t>
   </si>
   <si>
-    <t>8포트 공유기</t>
-  </si>
-  <si>
     <t>파워 릴레이</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
   </si>
   <si>
     <t>LM2596 5V 전원 레귤레이터 모듈</t>
-  </si>
-  <si>
-    <t>라즈베리 카메라</t>
   </si>
   <si>
     <t>팀 장   연 락 처</t>
@@ -251,6 +236,26 @@
   </si>
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1076851</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1077951</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipTIME A1004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리 카메라</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1214325</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=10919287</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -597,6 +602,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,12 +623,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,12 +631,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1103,7 +1108,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1121,16 +1126,16 @@
       <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="A2" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
@@ -1139,98 +1144,98 @@
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="34"/>
+      <c r="A4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="33"/>
       <c r="G4" s="24"/>
       <c r="H4" s="26">
         <v>45244</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="34"/>
+      <c r="A5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="33"/>
       <c r="G5" s="24"/>
       <c r="H5" s="25" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="34"/>
+      <c r="A6" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="33"/>
+      <c r="C6" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="33"/>
       <c r="G6" s="24"/>
       <c r="H6" s="25" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="38"/>
+      <c r="A7" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="40"/>
     </row>
     <row r="8" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.3">
@@ -1238,10 +1243,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1255,30 +1260,29 @@
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="67.5" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="9">
-        <v>65800</v>
-      </c>
-      <c r="F11" s="10">
-        <f>D11*E11</f>
-        <v>65800</v>
-      </c>
-      <c r="G11" s="10"/>
-      <c r="H11" s="19" t="s">
-        <v>0</v>
+        <v>46640</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
+        <v>46640</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1286,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1">
@@ -1300,8 +1304,8 @@
         <f t="shared" ref="G12:G34" si="0">(D12*E12)+(D12*E12)*0.1</f>
         <v>96800</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>13</v>
+      <c r="H12" s="30" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -1309,7 +1313,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1">
@@ -1324,7 +1328,7 @@
         <v>35750</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -1332,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1">
@@ -1347,7 +1351,7 @@
         <v>4950</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1355,11 +1359,11 @@
         <v>6</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="9">
         <v>1800</v>
@@ -1367,10 +1371,10 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10">
         <f t="shared" si="0"/>
-        <v>7920</v>
+        <v>9900</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1378,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1">
@@ -1393,7 +1397,7 @@
         <v>11000</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1401,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1">
@@ -1416,7 +1420,7 @@
         <v>2816</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1424,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="1">
@@ -1439,7 +1443,7 @@
         <v>4400</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1447,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="1">
@@ -1462,15 +1466,15 @@
         <v>15730</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>11</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="1">
@@ -1484,8 +1488,8 @@
         <f t="shared" si="0"/>
         <v>8580</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>11</v>
+      <c r="H20" s="31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1493,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="1">
@@ -1508,7 +1512,7 @@
         <v>935</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -1516,7 +1520,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="1">
@@ -1531,7 +1535,7 @@
         <v>935</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1539,7 +1543,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="1">
@@ -1554,7 +1558,7 @@
         <v>935</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1562,7 +1566,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1">
@@ -1577,7 +1581,7 @@
         <v>9240</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1585,7 +1589,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1">
@@ -1600,7 +1604,7 @@
         <v>4620</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
@@ -1608,10 +1612,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -1625,7 +1629,7 @@
       </c>
       <c r="G26" s="10"/>
       <c r="H26" s="19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1633,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1">
@@ -1648,7 +1652,7 @@
       </c>
       <c r="G27" s="10"/>
       <c r="H27" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1656,7 +1660,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1">
@@ -1671,7 +1675,7 @@
         <v>3388</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -1679,10 +1683,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D29" s="1">
         <v>6</v>
@@ -1696,7 +1700,7 @@
         <v>5808</v>
       </c>
       <c r="H29" s="30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -1704,7 +1708,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="1">
@@ -1719,15 +1723,15 @@
         <v>3872</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="1">
@@ -1741,8 +1745,8 @@
         <f t="shared" si="0"/>
         <v>7986</v>
       </c>
-      <c r="H31" s="40" t="s">
-        <v>69</v>
+      <c r="H31" s="30" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -1802,20 +1806,26 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
+        <v>42</v>
+      </c>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="14">
         <f>SUM(F10:F34,G10:G34)</f>
-        <v>389635</v>
+        <v>372455</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -1823,12 +1833,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
@@ -1838,10 +1842,12 @@
     <hyperlink ref="H25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="H27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="H26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="H28" r:id="rId8" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
-    <hyperlink ref="H29" r:id="rId9" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
-    <hyperlink ref="H31" r:id="rId10" xr:uid="{B5ECA5A5-1866-4F32-A9EE-B7F85448DDF5}"/>
+    <hyperlink ref="H28" r:id="rId7" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
+    <hyperlink ref="H29" r:id="rId8" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
+    <hyperlink ref="H31" r:id="rId9" xr:uid="{B5ECA5A5-1866-4F32-A9EE-B7F85448DDF5}"/>
+    <hyperlink ref="H12" r:id="rId10" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
+    <hyperlink ref="H11" r:id="rId11" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
+    <hyperlink ref="H20" r:id="rId12" xr:uid="{6A525696-25A8-4692-A91A-0BE463D5AFAE}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait"/>

--- a/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\참고 자료\01. 프로젝트 설계\07. 부품 견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC2E40D-8852-4D6A-9873-1D6B971A7933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA3AD40-BD33-4E6B-926B-8ECDF63EA9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=10916343</t>
   </si>
@@ -256,6 +256,14 @@
   </si>
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=10919287</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=10991321</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>정밀 드라이버 세트 7pcs</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1108,7 +1116,7 @@
   <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1749,11 +1757,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>23</v>
       </c>
-      <c r="B32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="9"/>
@@ -1765,7 +1775,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="6"/>
+      <c r="H32" s="31" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
@@ -1848,6 +1860,7 @@
     <hyperlink ref="H12" r:id="rId10" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
     <hyperlink ref="H11" r:id="rId11" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
     <hyperlink ref="H20" r:id="rId12" xr:uid="{6A525696-25A8-4692-A91A-0BE463D5AFAE}"/>
+    <hyperlink ref="H32" r:id="rId13" xr:uid="{46F6DF2C-50C4-42A3-8D4F-E696370D6706}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait"/>

--- a/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\참고 자료\01. 프로젝트 설계\07. 부품 견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA3AD40-BD33-4E6B-926B-8ECDF63EA9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF330F0-3FCE-4357-8884-57BFC7BC50CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -33,43 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=10916343</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1321195</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1358496</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1321192</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=12232873</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=12539421</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1278835</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=38803</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1313388</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1362013</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1321196</t>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1384708</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>스마트팩토리 SW개발 실무자 양성</t>
   </si>
@@ -87,9 +51,6 @@
     <t>건전지 AA</t>
   </si>
   <si>
-    <t>단가 (원)</t>
-  </si>
-  <si>
     <t>MesSage</t>
   </si>
   <si>
@@ -102,18 +63,12 @@
     <t>컨베이어 벨트</t>
   </si>
   <si>
-    <t>파워 릴레이</t>
-  </si>
-  <si>
     <t xml:space="preserve">모터드라이버 </t>
   </si>
   <si>
     <t>DHT11 디지털 온습도 센서 모듈</t>
   </si>
   <si>
-    <t>VAT(별도)</t>
-  </si>
-  <si>
     <t>DIY목재재단</t>
   </si>
   <si>
@@ -150,9 +105,6 @@
     <t>https://ideaplay6173.cafe24.com/product/detail.html?product_no=148&amp;cate_no=1&amp;display_group=3#none</t>
   </si>
   <si>
-    <t>VAT(포함)</t>
-  </si>
-  <si>
     <t>모델명</t>
   </si>
   <si>
@@ -228,42 +180,95 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>초음파 거리센서 모듈 HC-SR04</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1076851</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1077951</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipTIME A1004</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>라즈베리 카메라</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1214325</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=10919287</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=10991321</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>정밀 드라이버 세트 7pcs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1313388</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1362013</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1278835</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=12232873</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1358496</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=12539421</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1321195</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1321196</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1321192</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1384708</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=10916343</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>https://www.devicemart.co.kr/goods/view?no=1328148</t>
-  </si>
-  <si>
-    <t>초음파 거리센서 모듈 HC-SR04</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1076851</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1077951</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipTIME A1004</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>라즈베리 카메라</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=1214325</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=10919287</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.devicemart.co.kr/goods/view?no=10991321</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>정밀 드라이버 세트 7pcs</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>개당 단가(VAT 포함)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -561,18 +566,12 @@
     <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -587,9 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -610,10 +606,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,15 +621,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,6 +628,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,148 +1106,141 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" style="21" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="21" customWidth="1"/>
-    <col min="4" max="4" width="6.25" style="21" customWidth="1"/>
-    <col min="5" max="7" width="11.25" style="22" customWidth="1"/>
-    <col min="8" max="8" width="45.375" style="27" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="21"/>
+    <col min="1" max="1" width="5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="18" customWidth="1"/>
+    <col min="3" max="3" width="28.75" style="19" customWidth="1"/>
+    <col min="4" max="4" width="6.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="20" customWidth="1"/>
+    <col min="7" max="7" width="45.375" style="24" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G1" s="21"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+    </row>
+    <row r="3" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="23">
+        <v>45244</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4" s="33"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="26">
-        <v>45244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="33"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="38" t="s">
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>21</v>
+      <c r="B10" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -1266,17 +1252,16 @@
         <f>D10*E10</f>
         <v>56000</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G10" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>66</v>
+      <c r="B11" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="1">
@@ -1285,582 +1270,540 @@
       <c r="E11" s="9">
         <v>46640</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
+      <c r="F11" s="10">
+        <f t="shared" ref="F10:F33" si="0">D11*E11</f>
         <v>46640</v>
       </c>
-      <c r="H11" s="30" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G11" s="27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>67</v>
+      <c r="B12" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="1">
         <v>2</v>
       </c>
       <c r="E12" s="9">
-        <v>44000</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10">
-        <f t="shared" ref="G12:G34" si="0">(D12*E12)+(D12*E12)*0.1</f>
-        <v>96800</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24200</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>48400</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>19</v>
+      <c r="B13" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="1">
         <v>5</v>
       </c>
       <c r="E13" s="9">
-        <v>6500</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
+        <v>7150</v>
+      </c>
+      <c r="F13" s="10">
         <f t="shared" si="0"/>
         <v>35750</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G13" s="27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>5</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>20</v>
+      <c r="B14" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="1">
         <v>5</v>
       </c>
       <c r="E14" s="9">
-        <v>900</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10">
+        <v>990</v>
+      </c>
+      <c r="F14" s="10">
         <f t="shared" si="0"/>
         <v>4950</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>6</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>23</v>
+      <c r="B15" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="1">
         <v>5</v>
       </c>
       <c r="E15" s="9">
-        <v>1800</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
+        <v>1980</v>
+      </c>
+      <c r="F15" s="10">
         <f t="shared" si="0"/>
         <v>9900</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>7</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>34</v>
+      <c r="B16" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16" s="9">
-        <v>2000</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10">
-        <f t="shared" si="0"/>
-        <v>11000</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2200</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>8800</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>8</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1">
         <v>4</v>
       </c>
       <c r="E17" s="9">
-        <v>640</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10">
-        <f t="shared" si="0"/>
-        <v>2816</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="G17" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>9</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="15"/>
       <c r="D18" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18" s="9">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10">
-        <f t="shared" si="0"/>
-        <v>4400</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15730</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="0"/>
+        <v>15730</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>10</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="16"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2860</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="0"/>
+        <v>8580</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1">
         <v>1</v>
       </c>
-      <c r="E19" s="9">
-        <v>14300</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10">
-        <f t="shared" si="0"/>
-        <v>15730</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <v>11</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="1">
-        <v>3</v>
-      </c>
       <c r="E20" s="9">
-        <v>2600</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10">
-        <f t="shared" si="0"/>
-        <v>8580</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="G20" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>12</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="1">
         <v>1</v>
       </c>
-      <c r="E21" s="9">
-        <v>850</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10">
-        <f t="shared" si="0"/>
+      <c r="E21" s="26">
         <v>935</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F21" s="10">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>13</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>36</v>
+        <v>14</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="1">
         <v>1</v>
       </c>
-      <c r="E22" s="29">
-        <v>850</v>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10">
-        <f t="shared" si="0"/>
+      <c r="E22" s="9">
         <v>935</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2310</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>9240</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <v>14</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="9">
-        <v>850</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10">
-        <f t="shared" si="0"/>
-        <v>935</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="9">
-        <v>2100</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10">
-        <f t="shared" si="0"/>
-        <v>9240</v>
-      </c>
-      <c r="H24" s="19" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>4620</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <v>16</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="9">
+        <v>27320</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>27320</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="9">
-        <v>2100</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10">
-        <f t="shared" si="0"/>
-        <v>4620</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>28</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="1">
         <v>1</v>
       </c>
       <c r="E26" s="9">
-        <v>27320</v>
+        <v>14850</v>
       </c>
       <c r="F26" s="10">
-        <f t="shared" ref="F26:F34" si="1">D26*E26</f>
-        <v>27320</v>
-      </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>14850</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>18</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="9">
-        <v>14850</v>
+        <v>1540</v>
       </c>
       <c r="F27" s="10">
-        <f t="shared" si="1"/>
-        <v>14850</v>
-      </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>3080</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="D28" s="1">
+        <v>6</v>
+      </c>
+      <c r="E28" s="9">
+        <v>880</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>5280</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>21</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1">
         <v>2</v>
-      </c>
-      <c r="E28" s="9">
-        <v>1540</v>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10">
-        <f t="shared" si="0"/>
-        <v>3388</v>
-      </c>
-      <c r="H28" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="8">
-        <v>20</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="1">
-        <v>6</v>
       </c>
       <c r="E29" s="9">
         <v>880</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10">
-        <f t="shared" si="0"/>
-        <v>5808</v>
-      </c>
-      <c r="H29" s="30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E30" s="9">
-        <v>1760</v>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10">
-        <f t="shared" si="0"/>
-        <v>3872</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1210</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>7260</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E31" s="9">
-        <v>1210</v>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10">
-        <f t="shared" si="0"/>
-        <v>7986</v>
-      </c>
-      <c r="H31" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>8349</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>8349</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
-        <v>23</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="2"/>
       <c r="D32" s="1"/>
       <c r="E32" s="9"/>
       <c r="F32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="2"/>
       <c r="D33" s="1"/>
       <c r="E33" s="9"/>
       <c r="F33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="6"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="8">
-        <v>25</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="6"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="14">
-        <f>SUM(F10:F34,G10:G34)</f>
-        <v>372455</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="12"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="14">
+        <f>SUM(F10:F33)</f>
+        <v>323714</v>
+      </c>
+      <c r="G34" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:G7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H10" r:id="rId2" location="none" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H25" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="H27" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="H26" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="H28" r:id="rId7" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
-    <hyperlink ref="H29" r:id="rId8" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
-    <hyperlink ref="H31" r:id="rId9" xr:uid="{B5ECA5A5-1866-4F32-A9EE-B7F85448DDF5}"/>
-    <hyperlink ref="H12" r:id="rId10" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
-    <hyperlink ref="H11" r:id="rId11" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
-    <hyperlink ref="H20" r:id="rId12" xr:uid="{6A525696-25A8-4692-A91A-0BE463D5AFAE}"/>
-    <hyperlink ref="H32" r:id="rId13" xr:uid="{46F6DF2C-50C4-42A3-8D4F-E696370D6706}"/>
+    <hyperlink ref="G14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G10" r:id="rId2" location="none" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G23" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G26" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G25" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G27" r:id="rId7" xr:uid="{26B772D8-B701-45E8-A58E-EDE4E328555A}"/>
+    <hyperlink ref="G28" r:id="rId8" xr:uid="{22872939-2EE6-4282-AC29-D0BA98D91463}"/>
+    <hyperlink ref="G30" r:id="rId9" xr:uid="{B5ECA5A5-1866-4F32-A9EE-B7F85448DDF5}"/>
+    <hyperlink ref="G12" r:id="rId10" xr:uid="{C29A9B3F-3D72-412E-9732-765F8AF3AFC8}"/>
+    <hyperlink ref="G11" r:id="rId11" xr:uid="{3CDDA6E1-11E5-4E50-B399-06AE559216A4}"/>
+    <hyperlink ref="G19" r:id="rId12" xr:uid="{6A525696-25A8-4692-A91A-0BE463D5AFAE}"/>
+    <hyperlink ref="G31" r:id="rId13" xr:uid="{46F6DF2C-50C4-42A3-8D4F-E696370D6706}"/>
+    <hyperlink ref="G13" r:id="rId14" xr:uid="{D86A0DAE-6BC2-4BA9-BF02-974669A8DF58}"/>
+    <hyperlink ref="G15" r:id="rId15" xr:uid="{402547A5-BE02-49F4-860B-2B3FFC5ADF36}"/>
+    <hyperlink ref="G16" r:id="rId16" xr:uid="{325CF9F7-308C-48D0-B959-06C36DB96A8B}"/>
+    <hyperlink ref="G17" r:id="rId17" xr:uid="{0223F5C5-D820-4DF9-8EE8-8783E3263EA5}"/>
+    <hyperlink ref="G18" r:id="rId18" xr:uid="{F22A4BE9-ED62-454B-9602-15CB2CEA614E}"/>
+    <hyperlink ref="G20" r:id="rId19" xr:uid="{CAC1A6A2-0FCB-430B-91C2-3867166648E7}"/>
+    <hyperlink ref="G21" r:id="rId20" xr:uid="{E90C3E00-CE23-4FE7-9A4B-95884F8A1BAF}"/>
+    <hyperlink ref="G22" r:id="rId21" xr:uid="{DD77A9E5-367A-495C-810D-44CDDC435B7B}"/>
+    <hyperlink ref="G29" r:id="rId22" xr:uid="{3D3EE8FC-31E1-43C0-8A0F-FA4B5E5AAB87}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" scale="71" orientation="portrait"/>

--- a/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
+++ b/참고 자료/01. 프로젝트 설계/07. 부품 견적서/(최신)재료구입 품의서(3조).xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git test\doc\참고 자료\01. 프로젝트 설계\07. 부품 견적서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SFProject\doc\참고 자료\01. 프로젝트 설계\07. 부품 견적서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC2E40D-8852-4D6A-9873-1D6B971A7933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4251A0-21F3-486E-B7A6-3CFE47535477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16470" yWindow="885" windowWidth="15795" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="요약" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=10916343</t>
   </si>
@@ -256,6 +256,17 @@
   </si>
   <si>
     <t>https://www.devicemart.co.kr/goods/view?no=10919287</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://robotscience.kr/goods/view?no=17285</t>
+  </si>
+  <si>
+    <t>로봇팔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가구성 x</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -605,7 +616,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -614,15 +631,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -630,6 +638,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1107,8 +1118,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1126,16 +1137,16 @@
       <c r="H1" s="23"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
@@ -1144,72 +1155,72 @@
       <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="35"/>
       <c r="G4" s="24"/>
       <c r="H4" s="26">
         <v>45244</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="33"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="24"/>
       <c r="H5" s="25" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="24"/>
       <c r="H6" s="25" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="38" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="40"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
@@ -1753,19 +1764,25 @@
       <c r="A32" s="8">
         <v>23</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>55000</v>
+      </c>
+      <c r="F32" s="10"/>
       <c r="G32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="6"/>
+        <v>55000</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
@@ -1808,24 +1825,18 @@
       <c r="B35" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="14">
         <f>SUM(F10:F34,G10:G34)</f>
-        <v>372455</v>
+        <v>427455</v>
       </c>
       <c r="G35" s="14"/>
       <c r="H35" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:D4"/>
@@ -1833,6 +1844,12 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <hyperlinks>
